--- a/0_Report/ble_time_requirement.xlsx
+++ b/0_Report/ble_time_requirement.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="45">
   <si>
     <t>Slave Latency</t>
   </si>
@@ -144,6 +144,21 @@
   </si>
   <si>
     <t>500 [ms]</t>
+  </si>
+  <si>
+    <t>SoftDevice</t>
+  </si>
+  <si>
+    <t>Zephyr RTOS</t>
+  </si>
+  <si>
+    <t>RX MTU max [Bytes]</t>
+  </si>
+  <si>
+    <t>TX MTU max [Bytes]</t>
+  </si>
+  <si>
+    <t>Nbr Peripheral  Connected</t>
   </si>
 </sst>
 </file>
@@ -244,7 +259,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -288,6 +303,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -602,10 +618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:K9"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -615,9 +631,13 @@
     <col min="5" max="5" width="14.3984375" customWidth="1"/>
     <col min="7" max="7" width="18.265625" customWidth="1"/>
     <col min="8" max="11" width="16.46484375" customWidth="1"/>
+    <col min="13" max="13" width="20.9296875" customWidth="1"/>
+    <col min="14" max="15" width="18.6640625" customWidth="1"/>
+    <col min="17" max="17" width="23.53125" customWidth="1"/>
+    <col min="18" max="19" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="7"/>
       <c r="B1" s="8" t="s">
         <v>15</v>
@@ -644,8 +664,22 @@
       <c r="K1" s="11" t="s">
         <v>30</v>
       </c>
+      <c r="M1" s="16"/>
+      <c r="N1" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="S1" s="11" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>18</v>
       </c>
@@ -676,8 +710,26 @@
       <c r="K2" s="15" t="s">
         <v>33</v>
       </c>
+      <c r="M2" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" s="15">
+        <v>251</v>
+      </c>
+      <c r="O2" s="15">
+        <v>1300</v>
+      </c>
+      <c r="Q2" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="R2" s="15">
+        <v>8</v>
+      </c>
+      <c r="S2" s="15">
+        <v>64</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -708,8 +760,17 @@
       <c r="K3" s="13" t="s">
         <v>32</v>
       </c>
+      <c r="M3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" s="17">
+        <v>251</v>
+      </c>
+      <c r="O3" s="17">
+        <v>200</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -739,7 +800,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -771,7 +832,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
@@ -803,7 +864,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
       <c r="G7" s="10" t="s">
         <v>23</v>
       </c>
@@ -820,7 +881,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
       <c r="G8" s="14" t="s">
         <v>24</v>
       </c>
@@ -837,7 +898,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
       <c r="G9" s="10" t="s">
         <v>25</v>
       </c>
